--- a/medicine/Pharmacie/Thiénalprazolam/Thiénalprazolam.xlsx
+++ b/medicine/Pharmacie/Thiénalprazolam/Thiénalprazolam.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Thi%C3%A9nalprazolam</t>
+          <t>Thiénalprazolam</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le Thiénalprazolam, appelé à l'origine par le nom commun deschloroétizolam, est un composé organique appartenant à la famille des thiénodiazépines. Vendu sur internet après le contrôle de son analogue chloré, l'étizolam.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Thi%C3%A9nalprazolam</t>
+          <t>Thiénalprazolam</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Repères</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le thiénalprazolam est la version thiophène de l'alprazolam, c'est-à-dire que le cycle benzénique a été remplacé par un cycle thiophène. On peut également dire que c'est la version « deschlorée » de l'étizolam, étant la même molécule sans l'atome de chlore en position R2' (schéma visible en haut de l'article Benzodiazépine).
 </t>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Thi%C3%A9nalprazolam</t>
+          <t>Thiénalprazolam</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,7 +557,9 @@
           <t>Dosage et équivalence</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">La comparaison entre le dosage de la benzodiazépine triazolam et celui de la thiénodiazépine étizolam, suggère, en plus d'autres comparaisons non citées ici, que l'équivalence pour dix milligrammes de diazépam serait d'environ deux à quatre milligrammes de thiénalprazolam. Aucune étude scientifique ne peut étayer ce dosage, mais selon les études netnographiques et l’étude de sa structure chimique, le deschloroetizolam serait deux fois moins puissant que l’étizolam. Par convention, on retient donc que 2mg de thiénalprazolam correspondent à 10mg de diazépam.
 Il faut noter que les triazolobenzodiazépines, c'est-à-dire les benzodiazépines qui ont un cycle triazolo, ont une marge thérapeutique bien supérieure aux autres benzodiazépines et, comme la buprénorphine, il semble qu'une fois un certain dosage atteint, les effets n'augmentent plus. Ce qui n'est pas le cas avec les autres benzodiazépines.
@@ -557,7 +573,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Thi%C3%A9nalprazolam</t>
+          <t>Thiénalprazolam</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -575,7 +591,9 @@
           <t>Indications</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Le deschloroetizolam est une molécule de recherche scientifique et n’a aucune indication médicale.
 Cependant, le thiénalprazolam, s’il était commercialisé, serait indiqué pour traiter l'anxiété, surtout quand celle-ci s'accompagne de troubles gênants pour le patient ou son entourage. L'anxiété peut en effet se traduire par des crises d'angoisse qui rendent celui qui en fait invalide et peuvent entraîner chez lui une souffrance extrême.
@@ -591,7 +609,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Thi%C3%A9nalprazolam</t>
+          <t>Thiénalprazolam</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -609,7 +627,9 @@
           <t>Contre-indications</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Les personnes présentant les symptômes suivants sont invitées à faire très attention et/ou dans le cas d'une automédication d'en parler au  médecin prescripteur :
 des difficultés respiratoires chroniques non spécifiques : une dose plus faible sera alors envisagée ;
@@ -632,7 +652,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Thi%C3%A9nalprazolam</t>
+          <t>Thiénalprazolam</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -650,7 +670,9 @@
           <t>Effets indésirables</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Le thiénalprazolam, comme tout autre médicament, peut avoir des effets indésirables :
 très fréquents :
@@ -700,7 +722,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Thi%C3%A9nalprazolam</t>
+          <t>Thiénalprazolam</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -718,7 +740,9 @@
           <t>Tolérance, dépendance</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">Comme toutes les benzodiazépines, le thiénalprazolam provoque une tolérance et une dépendance.
 Elle est cependant moins marquée qu'avec la plupart des autres benzodiazépines comme notamment celle qui ont un atome de chlore en position R2’ et qui se traduit par une puissance accrue. 
@@ -732,7 +756,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Thi%C3%A9nalprazolam</t>
+          <t>Thiénalprazolam</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -750,7 +774,9 @@
           <t>Mécanisme d'action</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t xml:space="preserve">Le thiénalprazolam, comme toutes les benzodiazépines et apparentées, vont activer le système de frein du cerveau. Le GABA est le principal neurotransmetteur inhibiteur du système nerveux central. En temps normal, le GABA agit comme le ralentisseur du système nerveux central en se fixant sur les récepteurs appelés GABAA, ou pour être plus précis et comprendre la suite, sur une partie du récepteur qui lui est réservé. Il régule l’activité cérébrale en laissant passer un flux d'ions chlorure (Cl−) chargés négativement plus ou moins important selon les besoins ce qui polarise négativement la membrane post-synaptique du neurone récepteur (neurone post-synaptique).
 Les benzodiazépines quant à elles vont se fixer sur une partie du récepteurs GABAA qui leur sont propres, partie réservée on peut dire car à ce jour on observe que seules les benzodiazépines se fixent sur cette partie du récepteur, qui pour le coup est appelé « site benzodiazépine » (site BZD), comme la partie où se fixe le GABA est appelée « site GABA ». Les benzodiazépines en se fixant sur la partie du récepteur qui leur correspondent vont ainsi favoriser les effets du GABA ; cela va entraîner un passage accru d'ions chlorure (Cl−) et de fait entraîner une inhibition plus ou moins forte du système nerveux central en fonction de la dose consommée.
@@ -764,7 +790,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Thi%C3%A9nalprazolam</t>
+          <t>Thiénalprazolam</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -782,7 +808,9 @@
           <t>Surdosage</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
         <is>
           <t xml:space="preserve">Un surdosage de thiénalprazolam se caractérise par de la fatigue, accompagnée d’un manque de coordination des mouvements et de la confusion.
 Il faut être vigilant en cas de surdosage aux produits que la personne a éventuellement pris en même temps. Si la personne est inconsciente il faut appeler les secours.
@@ -796,7 +824,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Thi%C3%A9nalprazolam</t>
+          <t>Thiénalprazolam</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -814,7 +842,9 @@
           <t>Antidote</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
         <is>
           <t xml:space="preserve">Il existe un antidote, appelé le flumazénil, disponible uniquement sous forme injectable et réservé dans la plupart des cas au cadre hospitalier. C’est un antagoniste compétitif des récepteurs des benzodiazépines et il annule ses effets. Cependant, la vigilance est de mise car bien que l’apparition des effets soit très rapide, la demi-vie du flumazénil est très courte et de ce fait les personnes traitées par le flumazénil doivent rester sous surveillance médicale jusqu’à l’arrêt des effets de la benzodiazépine incriminée.
 </t>
@@ -827,7 +857,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Thi%C3%A9nalprazolam</t>
+          <t>Thiénalprazolam</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -845,7 +875,9 @@
           <t>Triazolobenzodiazépines</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
         <is>
           <t xml:space="preserve">On connait huit triazolobenzodiazépines :
 le thiénalprazolam ;
